--- a/round1/results.xlsx
+++ b/round1/results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukev\Documents\Thesis\EBM-NLP\pio_ebm_nlp\round1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66C34BA6-6C97-434C-870E-6DE9D5E1E511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AB79319-1CD0-438D-ABBD-44DE2AABD510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BFEA1419-1CF8-4F18-96BB-75BF83503850}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
   <si>
     <t>Type 1</t>
   </si>
@@ -140,12 +141,33 @@
   <si>
     <t>Psychological</t>
   </si>
+  <si>
+    <t>Cardiovascular disease</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Physical</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>Nr of words</t>
+  </si>
+  <si>
+    <t>Ratio of errors</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +177,21 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF303030"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -180,13 +217,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -238,9 +288,8 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> of each type of error</a:t>
+              <a:t> of each type of error in round 1</a:t>
             </a:r>
-            <a:endParaRPr lang="en-GB"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -621,6 +670,65 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Type</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> of error</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -686,6 +794,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Nr.</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> of errors</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -769,12 +936,880 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Subject</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> c</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ount</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$15:$I$18</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Cardiovascular disease</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Cancer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Autism</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Other</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$15:$J$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BE70-47A7-A6CF-764522C16F37}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="752624575"/>
+        <c:axId val="861229999"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="752624575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Subject</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="861229999"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="861229999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Count</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="752624575"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Main</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> intervention count</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$L$15:$L$21</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Psychological</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Other</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Control</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Surgical</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Educational</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Physical</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Drug</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$15:$M$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5327-4FE6-8BCB-B2E9D661758A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="859846863"/>
+        <c:axId val="859843535"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="859846863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Main</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> intervention</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="859843535"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="859843535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Count</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="859846863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -837,8 +1872,1098 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1347,15 +3472,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>301625</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>166158</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>59267</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>606425</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:rowOff>86782</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1380,13 +3505,85 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>131233</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>16933</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>160866</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D231C9D-E8C9-4100-8091-6509C2101012}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1138767</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>143933</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>33867</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFD461DD-8EEC-4165-9AF2-2E73B938C547}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="colorblind">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1394,34 +3591,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="56B4E9"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="FF9B4C"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="009E73"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="F0E442"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="000000"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="000000"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="000000"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="000000"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -1680,21 +3877,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CEB1FDF-FCF7-4A96-8189-BA8309D7B4B9}">
-  <dimension ref="A2:L12"/>
+  <dimension ref="A2:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.36328125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1707,6 +3906,9 @@
       <c r="D2" t="s">
         <v>13</v>
       </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
       <c r="I2" t="s">
         <v>26</v>
       </c>
@@ -1719,8 +3921,14 @@
       <c r="L2" t="s">
         <v>25</v>
       </c>
+      <c r="M2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1733,6 +3941,10 @@
       <c r="D3">
         <v>86</v>
       </c>
+      <c r="E3">
+        <f>B3+C3+D3</f>
+        <v>218</v>
+      </c>
       <c r="I3" t="s">
         <v>14</v>
       </c>
@@ -1745,8 +3957,15 @@
       <c r="L3">
         <v>78</v>
       </c>
+      <c r="M3" s="2">
+        <v>287</v>
+      </c>
+      <c r="N3">
+        <f>L3/M3</f>
+        <v>0.27177700348432055</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1759,6 +3978,10 @@
       <c r="D4">
         <v>20</v>
       </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E12" si="0">B4+C4+D4</f>
+        <v>46</v>
+      </c>
       <c r="I4" t="s">
         <v>15</v>
       </c>
@@ -1771,8 +3994,15 @@
       <c r="L4">
         <v>26</v>
       </c>
+      <c r="M4" s="1">
+        <v>204</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N12" si="1">L4/M4</f>
+        <v>0.12745098039215685</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1785,6 +4015,10 @@
       <c r="D5">
         <v>5</v>
       </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="I5" t="s">
         <v>16</v>
       </c>
@@ -1797,8 +4031,15 @@
       <c r="L5">
         <v>12</v>
       </c>
+      <c r="M5" s="1">
+        <v>149</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="1"/>
+        <v>8.0536912751677847E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1811,6 +4052,10 @@
       <c r="D6">
         <v>11</v>
       </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
       <c r="I6" t="s">
         <v>17</v>
       </c>
@@ -1823,8 +4068,15 @@
       <c r="L6">
         <v>39</v>
       </c>
+      <c r="M6" s="1">
+        <v>136</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="1"/>
+        <v>0.28676470588235292</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1837,6 +4089,10 @@
       <c r="D7">
         <v>3</v>
       </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="I7" t="s">
         <v>18</v>
       </c>
@@ -1849,8 +4105,15 @@
       <c r="L7">
         <v>66</v>
       </c>
+      <c r="M7" s="1">
+        <v>332</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="1"/>
+        <v>0.19879518072289157</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1863,6 +4126,10 @@
       <c r="D8">
         <v>0</v>
       </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="I8" t="s">
         <v>19</v>
       </c>
@@ -1875,8 +4142,15 @@
       <c r="L8">
         <v>35</v>
       </c>
+      <c r="M8" s="1">
+        <v>172</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="1"/>
+        <v>0.20348837209302326</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1889,6 +4163,10 @@
       <c r="D9">
         <v>5</v>
       </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
       <c r="I9" t="s">
         <v>20</v>
       </c>
@@ -1901,8 +4179,15 @@
       <c r="L9">
         <v>58</v>
       </c>
+      <c r="M9" s="1">
+        <v>314</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="1"/>
+        <v>0.18471337579617833</v>
+      </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1915,6 +4200,10 @@
       <c r="D10">
         <v>20</v>
       </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
       <c r="I10" t="s">
         <v>21</v>
       </c>
@@ -1927,8 +4216,15 @@
       <c r="L10">
         <v>47</v>
       </c>
+      <c r="M10" s="1">
+        <v>144</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>0.3263888888888889</v>
+      </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1941,6 +4237,10 @@
       <c r="D11">
         <v>4</v>
       </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="I11" t="s">
         <v>22</v>
       </c>
@@ -1953,8 +4253,15 @@
       <c r="L11">
         <v>48</v>
       </c>
+      <c r="M11" s="1">
+        <v>289</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>0.16608996539792387</v>
+      </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1967,6 +4274,10 @@
       <c r="D12">
         <v>21</v>
       </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
       <c r="I12" t="s">
         <v>23</v>
       </c>
@@ -1979,10 +4290,292 @@
       <c r="L12">
         <v>56</v>
       </c>
+      <c r="M12" s="1">
+        <v>254</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>0.22047244094488189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="3">
+        <f>SUM(B3:B12)</f>
+        <v>96</v>
+      </c>
+      <c r="C13" s="3">
+        <f>SUM(C3:C12)</f>
+        <v>210</v>
+      </c>
+      <c r="D13" s="3">
+        <f>SUM(D3:D12)</f>
+        <v>175</v>
+      </c>
+      <c r="E13" s="3">
+        <f>SUM(E3:E12)</f>
+        <v>481</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="I14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>34</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="I16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="L16" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="L17" t="s">
+        <v>38</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="I18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18">
+        <v>7</v>
+      </c>
+      <c r="L18" t="s">
+        <v>29</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="L19" t="s">
+        <v>33</v>
+      </c>
+      <c r="M19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="L20" t="s">
+        <v>37</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="9:13" x14ac:dyDescent="0.35">
+      <c r="L21" t="s">
+        <v>31</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L15:N21">
+    <sortCondition descending="1" ref="N15:N21"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="J15:J18">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{210A955D-3CB5-4FC2-97BE-6F9961C6B87F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M15:M21">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B32CB47C-7E7A-4486-B5A1-64D97AF9DC09}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:D12">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5F56FD6B-68FF-4315-8EC7-AF8D24E589F6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3:L12">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0772F48B-7E2A-4CF5-A54A-B14A31EDD74F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C83178F2-D459-4039-926F-ABB1E5C6F35D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3:N12">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>0.203462901</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E12">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E84192E6-BAF1-4B8E-B6D8-E23F4213EA66}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{210A955D-3CB5-4FC2-97BE-6F9961C6B87F}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J15:J18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B32CB47C-7E7A-4486-B5A1-64D97AF9DC09}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M15:M21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5F56FD6B-68FF-4315-8EC7-AF8D24E589F6}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B3:D12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0772F48B-7E2A-4CF5-A54A-B14A31EDD74F}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{C83178F2-D459-4039-926F-ABB1E5C6F35D}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L3:L12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E84192E6-BAF1-4B8E-B6D8-E23F4213EA66}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E3:E12</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>